--- a/inst/r_values_for_SDI.xlsx
+++ b/inst/r_values_for_SDI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Proyectos\R_paquetes\silviculture-CONTENIDO\03_r_reineke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Proyectos\R_paquetes\silviculture-CONTENIDO\06_cambios_varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B724A-C5E1-4284-AE09-558AA35C42A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA89B6-F723-49A8-9E0E-B9D93E5E7C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r_values" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>article_id</t>
   </si>
@@ -118,6 +121,18 @@
   </si>
   <si>
     <t>https://7cfe.congresoforestal.es/sites/default/files/comunicaciones/38.pdf</t>
+  </si>
+  <si>
+    <t>palahi-2003</t>
+  </si>
+  <si>
+    <t>Individual-tree growth and mortality models for Scots pine (Pinus sylvestris L.) in north-east Spain</t>
+  </si>
+  <si>
+    <t>https://www.afs-journal.org/articles/forest/pdf/2003/01/F3101.pdf</t>
+  </si>
+  <si>
+    <t>north-east</t>
   </si>
 </sst>
 </file>
@@ -125,8 +140,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -166,14 +181,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,63 +573,63 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>-1.605</v>
       </c>
     </row>
@@ -628,19 +640,19 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>-1.75</v>
       </c>
     </row>
@@ -651,19 +663,19 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>-1.621</v>
       </c>
     </row>
@@ -674,19 +686,19 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>-1.629</v>
       </c>
     </row>
@@ -697,19 +709,19 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>-1.4554</v>
       </c>
     </row>
@@ -720,19 +732,19 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>-1.6588000000000001</v>
       </c>
     </row>
@@ -743,19 +755,19 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>-2.1518000000000002</v>
       </c>
     </row>
@@ -766,19 +778,19 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>-1.8186</v>
       </c>
     </row>
@@ -789,19 +801,19 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>-1.6823999999999999</v>
       </c>
     </row>
@@ -812,333 +824,353 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>-1.9477</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
-      <c r="G65" s="1"/>
-    </row>
-    <row r="75" spans="3:7">
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="3:7">
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="4"/>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-1.8149999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="4"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="4"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="4"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="4"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="4"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="4"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="4"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="4"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="4"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="4"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="4"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="4"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="4"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="4"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="4"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="4"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="4"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="4"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="4"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="4"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="4"/>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="4"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="4"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="4"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="4"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="4"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="4"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="4"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="4"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="4"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="4"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="4"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="4"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="4"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="4"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="4"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="4"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="4"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="4"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="4"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="4"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="4"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="4"/>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="4"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="4"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="4"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="4"/>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="4"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="4"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="4"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="4"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="4"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="4"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="4"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="4"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="4"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="4"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="4"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="4"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="4"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="4"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="4"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="4"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="4"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="4"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="4"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="4"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="4"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="4"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="4"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="4"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="4"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="4"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="4"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="4"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="4"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="4"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="4"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="4"/>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="4"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="4"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="4"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="4"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="4"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="3:3">
-      <c r="C165" s="4"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="4"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="4"/>
+      <c r="C167" s="1"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="4"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="4"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="4"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="4"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="4"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="4"/>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="4"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="4"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="4"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="4"/>
+      <c r="C177" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
